--- a/Mobile Issues.xlsx
+++ b/Mobile Issues.xlsx
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2480,48 +2480,48 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="67.5">
-      <c r="A22" s="27">
+    <row r="22" spans="1:17" s="47" customFormat="1" ht="90">
+      <c r="A22" s="35">
         <v>1201</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="37">
         <v>41828</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="H22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="17" t="s">
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" s="47" customFormat="1" ht="150">
       <c r="A23" s="35">
